--- a/data/final_nh_data_with_ratings.xlsx
+++ b/data/final_nh_data_with_ratings.xlsx
@@ -29,36 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF69B4"/>
-        <bgColor rgb="00FF69B4"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -79,15 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -547,7 +519,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Age 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -588,7 +560,7 @@
       <c r="L2" t="n">
         <v>-2.1341733</v>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -612,7 +584,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -653,7 +625,7 @@
       <c r="L3" t="n">
         <v>-2.16295</v>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -678,7 +650,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -716,7 +688,7 @@
       <c r="L4" t="n">
         <v>-2.1164204</v>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -740,7 +712,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -778,7 +750,7 @@
       <c r="L5" t="n">
         <v>-2.101861</v>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -802,7 +774,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -841,7 +813,7 @@
       <c r="L6" t="n">
         <v>-2.0859231</v>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -866,7 +838,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -903,7 +875,7 @@
       <c r="L7" t="n">
         <v>-2.157669</v>
       </c>
-      <c r="M7" s="2" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -965,7 +937,7 @@
       <c r="L8" t="n">
         <v>-2.12446</v>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -989,7 +961,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ages 55+</t>
+          <t>55+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1032,7 +1004,7 @@
       <c r="L9" t="n">
         <v>-2.1017361</v>
       </c>
-      <c r="M9" s="3" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -1057,7 +1029,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ages 50+</t>
+          <t>50+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1097,7 +1069,7 @@
       <c r="L10" t="n">
         <v>-2.1481652</v>
       </c>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -1122,7 +1094,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1161,7 +1133,7 @@
       <c r="L11" t="n">
         <v>-2.087772299059737</v>
       </c>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -1185,7 +1157,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ages 18+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1223,7 +1195,7 @@
       <c r="L12" t="n">
         <v>-2.1047859</v>
       </c>
-      <c r="M12" s="3" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -1248,7 +1220,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ages 18+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1286,7 +1258,7 @@
       <c r="L13" t="n">
         <v>-2.0858346</v>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -1310,7 +1282,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1347,7 +1319,7 @@
       <c r="L14" t="n">
         <v>-2.1698679</v>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -1414,7 +1386,7 @@
       <c r="L15" t="n">
         <v>-2.08333</v>
       </c>
-      <c r="M15" s="2" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -1438,7 +1410,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ages 65+ 
+          <t>65+ 
 No 
 Smoking</t>
         </is>
@@ -1478,7 +1450,7 @@
       <c r="L16" t="n">
         <v>-2.1367573</v>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -1503,7 +1475,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ages 18+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1543,7 +1515,7 @@
       <c r="L17" t="n">
         <v>-2.1499568</v>
       </c>
-      <c r="M17" s="3" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -1567,7 +1539,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1604,7 +1576,7 @@
       <c r="L18" t="n">
         <v>-2.072545585296685</v>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -1669,7 +1641,7 @@
       <c r="L19" t="n">
         <v>-2.12139</v>
       </c>
-      <c r="M19" s="2" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -1734,7 +1706,7 @@
       <c r="L20" t="n">
         <v>-2.0828334</v>
       </c>
-      <c r="M20" s="2" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -1799,7 +1771,7 @@
       <c r="L21" t="n">
         <v>-2.0828334</v>
       </c>
-      <c r="M21" s="2" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -1824,7 +1796,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1863,7 +1835,7 @@
       <c r="L22" t="n">
         <v>-2.1066216</v>
       </c>
-      <c r="M22" s="2" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -1888,7 +1860,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ages 18+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1937,7 +1909,7 @@
       <c r="L23" t="n">
         <v>-2.1411762</v>
       </c>
-      <c r="M23" s="3" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -1962,7 +1934,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2002,7 +1974,7 @@
       <c r="L24" t="n">
         <v>-2.1623606</v>
       </c>
-      <c r="M24" s="2" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -2027,7 +1999,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2068,7 +2040,7 @@
       <c r="L25" t="n">
         <v>-0.864748</v>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -2093,7 +2065,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ages 60+</t>
+          <t>60+</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2135,7 +2107,7 @@
       <c r="L26" t="n">
         <v>-2.1621007</v>
       </c>
-      <c r="M26" s="3" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -2160,7 +2132,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2201,7 +2173,7 @@
       <c r="L27" t="n">
         <v>-2.1024108</v>
       </c>
-      <c r="M27" s="2" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -2227,7 +2199,9 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>DY1 2ER</t>
@@ -2249,7 +2223,7 @@
       <c r="L28" t="n">
         <v>-2.1047859</v>
       </c>
-      <c r="M28" s="3" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -2274,7 +2248,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2314,7 +2288,7 @@
       <c r="L29" t="n">
         <v>-2.138347</v>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -2339,7 +2313,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2379,7 +2353,7 @@
       <c r="L30" t="n">
         <v>-2.149516</v>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -2404,7 +2378,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2445,7 +2419,7 @@
       <c r="L31" t="n">
         <v>-2.140777</v>
       </c>
-      <c r="M31" s="3" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -2508,7 +2482,7 @@
       <c r="L32" t="n">
         <v>-2.12139</v>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -2571,7 +2545,7 @@
       <c r="L33" t="n">
         <v>-2.087861</v>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -2634,7 +2608,7 @@
       <c r="L34" t="n">
         <v>-2.0836324</v>
       </c>
-      <c r="M34" s="2" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -2659,7 +2633,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ages 18+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2697,7 +2671,7 @@
       <c r="L35" t="n">
         <v>-2.15449415903775</v>
       </c>
-      <c r="M35" s="2" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -2721,7 +2695,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2759,7 +2733,7 @@
       <c r="L36" t="n">
         <v>-2.0943908</v>
       </c>
-      <c r="M36" s="3" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -2784,7 +2758,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ages 60+</t>
+          <t>60+</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2823,7 +2797,7 @@
       <c r="L37" t="n">
         <v>-2.0763456</v>
       </c>
-      <c r="M37" s="3" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -2843,7 +2817,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ages 18+</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2881,7 +2855,7 @@
       <c r="L38" t="n">
         <v>-2.16889</v>
       </c>
-      <c r="M38" s="2" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -2906,7 +2880,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2944,7 +2918,7 @@
       <c r="L39" t="n">
         <v>-2.1594272</v>
       </c>
-      <c r="M39" s="2" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -3011,7 +2985,7 @@
       <c r="L40" t="n">
         <v>-2.083401</v>
       </c>
-      <c r="M40" s="2" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -3035,7 +3009,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ages 50+</t>
+          <t>50+</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3075,7 +3049,7 @@
       <c r="L41" t="n">
         <v>-2.1650633</v>
       </c>
-      <c r="M41" s="4" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -3141,7 +3115,7 @@
       <c r="L42" t="n">
         <v>-2.1047859</v>
       </c>
-      <c r="M42" s="3" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -3168,7 +3142,7 @@
           <t>Mobile 
 with one 
 carer  
-Ages 65+</t>
+ 65+</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3208,7 +3182,7 @@
       <c r="L43" t="n">
         <v>-2.141871</v>
       </c>
-      <c r="M43" s="2" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -3233,7 +3207,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ages 60+</t>
+          <t>60+</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3271,7 +3245,7 @@
       <c r="L44" t="n">
         <v>-2.108205</v>
       </c>
-      <c r="M44" s="4" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -3296,7 +3270,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ages 60+</t>
+          <t>60+</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3340,7 +3314,7 @@
       <c r="L45" t="n">
         <v>-2.14260599108629</v>
       </c>
-      <c r="M45" s="2" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -3405,7 +3379,7 @@
       <c r="L46" t="n">
         <v>-2.0878087</v>
       </c>
-      <c r="M46" s="4" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -3429,7 +3403,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ages 60+</t>
+          <t>60+</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3469,7 +3443,7 @@
       <c r="L47" t="n">
         <v>-2.1593561</v>
       </c>
-      <c r="M47" s="2" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -3494,7 +3468,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ages from 
+          <t>from 
 50 – 150</t>
         </is>
       </c>
@@ -3536,7 +3510,7 @@
       <c r="L48" t="n">
         <v>-2.0905432</v>
       </c>
-      <c r="M48" s="4" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -3561,7 +3535,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ages 65+</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3602,7 +3576,7 @@
       <c r="L49" t="n">
         <v>-2.1190688</v>
       </c>
-      <c r="M49" s="4" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -3668,7 +3642,7 @@
       <c r="L50" t="n">
         <v>-115.170299</v>
       </c>
-      <c r="M50" s="2" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -3693,7 +3667,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ages 55+</t>
+          <t>55+</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3734,7 +3708,7 @@
       <c r="L51" t="n">
         <v>-2.106248001784807</v>
       </c>
-      <c r="M51" s="2" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -3754,7 +3728,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ages 50+  </t>
+          <t>50+</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3794,7 +3768,7 @@
       <c r="L52" t="n">
         <v>-2.08333</v>
       </c>
-      <c r="M52" s="3" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -3857,7 +3831,7 @@
       <c r="L53" t="n">
         <v>-2.1301692</v>
       </c>
-      <c r="M53" s="4" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -3920,7 +3894,7 @@
       <c r="L54" t="n">
         <v>-2.1301692</v>
       </c>
-      <c r="M54" s="4" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -3986,7 +3960,7 @@
       <c r="L55" t="n">
         <v>-2.1047859</v>
       </c>
-      <c r="M55" s="3" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -4051,7 +4025,7 @@
       <c r="L56" t="n">
         <v>-2.1551871</v>
       </c>
-      <c r="M56" s="2" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -4075,7 +4049,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ages 60+  </t>
+          <t>60+</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4113,7 +4087,7 @@
       <c r="L57" t="n">
         <v>-2.1563455</v>
       </c>
-      <c r="M57" s="5" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>Inadequate</t>
         </is>
@@ -4138,7 +4112,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ages 65+  </t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4176,7 +4150,7 @@
       <c r="L58" t="n">
         <v>-2.1231611</v>
       </c>
-      <c r="M58" s="2" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>No published rating</t>
         </is>
@@ -4201,7 +4175,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ages 50+  </t>
+          <t>50+</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4241,7 +4215,7 @@
       <c r="L59" t="n">
         <v>-2.1326086</v>
       </c>
-      <c r="M59" s="3" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
@@ -4265,7 +4239,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ages 60+  </t>
+          <t>60+</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4304,7 +4278,7 @@
       <c r="L60" t="n">
         <v>-2.1320989</v>
       </c>
-      <c r="M60" s="4" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -4329,7 +4303,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ages 65+  </t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4366,7 +4340,7 @@
       <c r="L61" t="n">
         <v>-2.1562237</v>
       </c>
-      <c r="M61" s="4" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -4390,7 +4364,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ages 65+  </t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4427,7 +4401,7 @@
       <c r="L62" t="n">
         <v>-2.1301692</v>
       </c>
-      <c r="M62" s="4" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -4452,7 +4426,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ages 65+  </t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4489,7 +4463,7 @@
       <c r="L63" t="n">
         <v>-2.1702452</v>
       </c>
-      <c r="M63" s="3" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>Requires improvement</t>
         </is>
